--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2187871.143596374</v>
+        <v>2185494.516649008</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>63.59441785694199</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>72.94942429078246</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>61.18421556648264</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>148.0977202315502</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>42.68052496925104</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>346.2805973438293</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>4.910533536225973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>35.54361781414442</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33.98894749646953</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>70.33074646471312</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893127</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>146.1850499531087</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,19 +1607,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722601</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977082</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703239</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703275</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.9868975105752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892427949</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>118.4651697467934</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703304</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462237</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.3216348137587</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>492.359117873347</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>134.0934192665965</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>134.0934192665965</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>127.147918517393</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>115.4835722820859</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>115.4835722820859</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167644</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.481876182945</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.481876182945</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.481876182945</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182945</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.481876182945</v>
+        <v>1277.580892319403</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>551.602574876695</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>846.3061319081668</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W7" t="n">
-        <v>1087.683159487371</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X7" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y7" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496369</v>
+        <v>858.9396732896237</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7592778092252</v>
+        <v>489.977156349212</v>
       </c>
       <c r="D8" t="n">
-        <v>105.7592778092252</v>
+        <v>489.977156349212</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>104.1889037509677</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>97.24340300176424</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>85.57905676645717</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1249.079005265435</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137587</v>
+        <v>858.9396732896237</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,40 +4869,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>376.0561848661677</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>376.0561848661677</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>376.0561848661677</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>228.1430912837745</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>228.1430912837745</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>228.1430912837745</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>824.8383149077151</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>596.8487640096978</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>376.0561848661677</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.91737983267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121616</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121616</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121616</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782922</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038309</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138384</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703082</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.8412329032296</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
         <v>552.8412329032296</v>
@@ -6139,58 +6139,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.91737983267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510516</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854713</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648826</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611866</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138484</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.4896977334694</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6485,28 +6485,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400697</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121627</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121626</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121625</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121623</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270421</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611857</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138398</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703096</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>365.9405071576781</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>219.0505596597677</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,46 +6941,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>986.1256051221279</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>817.189422194221</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.556199993915</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.566649095898</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.774069952368</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121676</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121677</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121679</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812168</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057736</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>224.3355197601775</v>
+        <v>15.64270034434975</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="N9" t="n">
-        <v>45.76488231024564</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>71.22040037417955</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667983</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194495</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194134</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.59775584151961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194451</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>30.15030327141895</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.2291039219383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516048</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752545</v>
@@ -26338,22 +26338,22 @@
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752549</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26378,19 +26378,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.375425415391561e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.029767535610831e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.310980788448119e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.029767535610831e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719767</v>
+        <v>7507.368461719672</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719746</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719552</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719583</v>
+        <v>7507.368461719643</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719767</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719552</v>
-      </c>
       <c r="L4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719688</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.36846171966</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.36846171969</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.36846171971</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26488,7 +26488,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745548.1364109034</v>
+        <v>-745548.1364109037</v>
       </c>
       <c r="C6" t="n">
+        <v>369203.6471650162</v>
+      </c>
+      <c r="D6" t="n">
         <v>369203.6471650158</v>
       </c>
-      <c r="D6" t="n">
-        <v>369203.6471650159</v>
-      </c>
       <c r="E6" t="n">
-        <v>-30934.05513491829</v>
+        <v>-30968.793060354</v>
       </c>
       <c r="F6" t="n">
-        <v>476551.3864896277</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="G6" t="n">
-        <v>476551.3864896268</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="H6" t="n">
-        <v>476551.3864896274</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="I6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.648564192</v>
       </c>
       <c r="J6" t="n">
-        <v>308946.2086796454</v>
+        <v>308911.4707542094</v>
       </c>
       <c r="K6" t="n">
-        <v>476551.3864896278</v>
+        <v>476516.6485641917</v>
       </c>
       <c r="L6" t="n">
-        <v>476551.3864896279</v>
+        <v>476516.648564192</v>
       </c>
       <c r="M6" t="n">
-        <v>343944.092760701</v>
+        <v>343909.3548352657</v>
       </c>
       <c r="N6" t="n">
-        <v>476551.3864896272</v>
+        <v>476516.648564192</v>
       </c>
       <c r="O6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="P6" t="n">
-        <v>476551.3864896277</v>
+        <v>476516.6485641919</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16787846850237e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.16787846850237e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.16787846850237e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,19 +26802,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16787846850237e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.16787846850237e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1154948155285</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>313.2885143652711</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>85.24974708008654</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>77.61193515748695</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>339.2498451030107</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>39.95734131222429</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>281.612464800365</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>346.3867522581174</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>267.0296050659359</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>76.92076269041576</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188788</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7.204082051210768e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28327,19 +28327,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.16787846850237e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.664087411929107e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.682849172497068e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.875832822406664e-12</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.204082051210768e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.184166857373874e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.287209419513535e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.287209419513538e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.287209419513538e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,25 +32078,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319844</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34787,13 +34787,13 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>474.0150488837098</v>
+        <v>265.322229467882</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>442.4296662895795</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35258,10 +35258,10 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>535.6747904601048</v>
       </c>
       <c r="N9" t="n">
-        <v>436.9619819031195</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010523</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875399</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326294976</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572999056</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902445</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
